--- a/diem_danh_giay_20_05_22_02_22_42.xlsx
+++ b/diem_danh_giay_20_05_22_02_22_42.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>Sổ điểm danh - Lớp WE17322
 Học kỳ Summer 2022 (..../..../....)</t>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>trungddph27823@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>PH27832</t>
@@ -432,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -466,16 +469,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,16 +530,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -510,39 +560,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,38 +583,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,7 +598,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +634,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,25 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,37 +766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,25 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,61 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,10 +837,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -867,17 +911,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,186 +934,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1494,8 +1497,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="$A33:$XFD33"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1782,7 +1785,9 @@
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1810,15 +1815,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1846,13 +1853,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1882,13 +1889,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1918,15 +1925,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1954,13 +1963,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1990,15 +1999,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2026,15 +2037,17 @@
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2062,13 +2075,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2098,13 +2111,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2134,13 +2147,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2170,13 +2183,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2206,13 +2219,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2242,13 +2255,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2278,13 +2291,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2314,13 +2327,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2350,13 +2363,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2386,13 +2399,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2422,15 +2435,17 @@
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2458,13 +2473,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2494,13 +2509,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2530,13 +2545,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2566,13 +2581,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2602,13 +2617,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2638,13 +2653,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2674,13 +2689,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2710,15 +2725,17 @@
         <v>30</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2746,13 +2763,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2782,13 +2799,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2818,13 +2835,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2854,13 +2871,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2890,13 +2907,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2926,13 +2943,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2962,13 +2979,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2998,13 +3015,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3034,13 +3051,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3070,13 +3087,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3103,7 +3120,7 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3133,7 +3150,7 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3163,11 +3180,11 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="1"/>
@@ -3195,7 +3212,7 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3225,7 +3242,7 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3255,7 +3272,7 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3288,7 +3305,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3315,7 +3332,7 @@
     </row>
     <row r="53" ht="37.5" customHeight="1" spans="1:26">
       <c r="A53" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
